--- a/downloaded_files/MDPS363_Tutorial-35623.xlsx
+++ b/downloaded_files/MDPS363_Tutorial-35623.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -256,15 +256,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> MARIAM EHAB NOBY SAYED ELSAWY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ملك محمد السيد عبد الفتاح زيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Malak Mohamed Elsayed Abdelfattah Zeid</x:t>
   </x:si>
   <x:si>
     <x:t>1210031</x:t>
@@ -470,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1661,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.5476548611</x:v>
+        <x:v>45906.6656297454</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6656297454</x:v>
+        <x:v>45914.5183198727</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.5183198727</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45918.4074414352</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45918.4074414352</x:v>
+        <x:v>45907.6144419329</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6144419329</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45914.4737116898</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.4737116898</x:v>
+        <x:v>45909.8164664005</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1966,38 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45909.8164664005</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS363_Tutorial-35623.xlsx
+++ b/downloaded_files/MDPS363_Tutorial-35623.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -328,15 +328,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Hamed Mahmoud Youssef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230292</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمود حسن محمود علي بدر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yousef Mahmoud Hassan Mahmoud Aly Badr</x:t>
   </x:si>
   <x:si>
     <x:t>1210095</x:t>
@@ -461,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1908,7 +1899,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.4737116898</x:v>
+        <x:v>45909.8164664005</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1925,38 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45909.8164664005</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS363_Tutorial-35623.xlsx
+++ b/downloaded_files/MDPS363_Tutorial-35623.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -174,7 +174,7 @@
     <x:t>فارس صلاح الدين احمد فؤاد حسنين حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>Fares Salaheldin Ahmed Fouad</x:t>
+    <x:t>Faris Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230224</x:t>
@@ -292,15 +292,6 @@
   </x:si>
   <x:si>
     <x:t>Hisham Haytham Zaki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يارا خالد جمال فهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yara Khaled Gamal Fahim</x:t>
   </x:si>
   <x:si>
     <x:t>1220153</x:t>
@@ -452,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1771,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45918.4074414352</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45918.4074414352</x:v>
+        <x:v>45907.6144419329</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6144419329</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45909.8164664005</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1885,38 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45909.8164664005</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Finite Element Analysis (MDPS363) Location : [14300]14300-60-الجيزة الرئيسي Time : Monday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MDPS363_Tutorial-35623.xlsx
+++ b/downloaded_files/MDPS363_Tutorial-35623.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -87,24 +87,6 @@
     <x:t>Amir Michel Farouk Mosaad</x:t>
   </x:si>
   <x:si>
-    <x:t>1220041</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بلال عاطف محمد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Belal Atef Mohammed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220238</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رامز لبيب حلمى لبيب معوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramez Labib Helmy Labib</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200416</x:t>
   </x:si>
   <x:si>
@@ -132,15 +114,6 @@
     <x:t>Abdullah Amir Abdel monegan khafagy</x:t>
   </x:si>
   <x:si>
-    <x:t>1220064</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد حسن احمد بكر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Hasan Ahmed Bakr</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210059</x:t>
   </x:si>
   <x:si>
@@ -150,24 +123,6 @@
     <x:t>abdelrahman hany ahmed raafat</x:t>
   </x:si>
   <x:si>
-    <x:t>1210067</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد عبد الصمد ذكى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Abdel Samad Zaky</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو محمد صديق جاد الرب محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amr Mohamed Seddeek Gad Elrab Mahmoud</x:t>
-  </x:si>
-  <x:si>
     <x:t>2220009</x:t>
   </x:si>
   <x:si>
@@ -177,15 +132,6 @@
     <x:t>Faris Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
   </x:si>
   <x:si>
-    <x:t>1230224</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فريد رامز حسني غزال</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farid Ramez Hosny Ghazal</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230099</x:t>
   </x:si>
   <x:si>
@@ -231,15 +177,6 @@
     <x:t xml:space="preserve">  Mohamed Nehad Sayed Ahmed El kanawaty</x:t>
   </x:si>
   <x:si>
-    <x:t>1230250</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود حسن محمود عبدالغنى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Hassan Mahmoud Abdel-Ghani</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230251</x:t>
   </x:si>
   <x:si>
@@ -267,15 +204,6 @@
     <x:t>Menna Tullah Medhat Abdelrazik Aly</x:t>
   </x:si>
   <x:si>
-    <x:t>1220318</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور احمد شمس الدين محمد سالم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Ahmed Shamseldin Mohamed Salem</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210034</x:t>
   </x:si>
   <x:si>
@@ -294,15 +222,6 @@
     <x:t>Hisham Haytham Zaki</x:t>
   </x:si>
   <x:si>
-    <x:t>1220153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ياسين إسلام صلاح عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yassin Islam Salah Abdelhameed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210173</x:t>
   </x:si>
   <x:si>
@@ -319,15 +238,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Hamed Mahmoud Youssef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف مصطفى محمد محمد شميلة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mostafa Mohamed Mohamed Shemela</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -443,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1026,7 +936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4318913194</x:v>
+        <x:v>45906.685368287</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1058,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4248719097</x:v>
+        <x:v>45906.6650502315</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1090,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45906.6657981829</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1122,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6650502315</x:v>
+        <x:v>45906.6986981829</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1154,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6657981829</x:v>
+        <x:v>45906.4313854514</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1186,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4363579861</x:v>
+        <x:v>45914.4049574074</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1218,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6986981829</x:v>
+        <x:v>45906.4147882292</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1250,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6652276273</x:v>
+        <x:v>45906.665940162</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1282,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6646825232</x:v>
+        <x:v>45906.6660945602</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1314,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4313854514</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1346,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45914.4463732292</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1378,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.4049574074</x:v>
+        <x:v>45907.415655706</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4147882292</x:v>
+        <x:v>45906.6656297454</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1442,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.665940162</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1474,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1506,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45907.6144419329</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1538,7 +1448,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.9780105671</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1555,326 +1465,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45914.4463732292</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45907.415655706</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45906.6656297454</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45914.5183198727</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45906.6645776968</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45906.6647594907</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45918.4074414352</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45907.6144419329</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45907.4153402431</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45909.8164664005</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS363_Tutorial-35623.xlsx
+++ b/downloaded_files/MDPS363_Tutorial-35623.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Amir Michel Farouk Mosaad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200416</x:t>
-  </x:si>
-  <x:si>
-    <x:t>شهاب أشرف طه غلاب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shehab Ashraf Taha Ghalab</x:t>
   </x:si>
   <x:si>
     <x:t>1210367</x:t>
@@ -353,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -936,7 +927,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45906.6650502315</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +959,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6650502315</x:v>
+        <x:v>45906.6657981829</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +991,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6657981829</x:v>
+        <x:v>45906.6986981829</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1023,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6986981829</x:v>
+        <x:v>45906.4313854514</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1055,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4313854514</x:v>
+        <x:v>45914.4049574074</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.4049574074</x:v>
+        <x:v>45906.4147882292</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4147882292</x:v>
+        <x:v>45906.665940162</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.665940162</x:v>
+        <x:v>45906.6660945602</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45914.4463732292</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.4463732292</x:v>
+        <x:v>45907.415655706</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.415655706</x:v>
+        <x:v>45906.6656297454</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6656297454</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45907.6144419329</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1407,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6144419329</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1433,38 +1424,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45907.4153402431</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS363_Tutorial-35623.xlsx
+++ b/downloaded_files/MDPS363_Tutorial-35623.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>AHMED MOHAMMED ELAMIR SAYED MAHMOUD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200099</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد عبدالعال عبدالقوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Abdelaal AbdelKawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210046</x:t>
@@ -344,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -863,7 +854,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.5682872685</x:v>
+        <x:v>45906.6710427431</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -895,7 +886,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6710427431</x:v>
+        <x:v>45906.6650502315</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -927,7 +918,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6650502315</x:v>
+        <x:v>45906.6657981829</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -959,7 +950,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6657981829</x:v>
+        <x:v>45906.6986981829</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -991,7 +982,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6986981829</x:v>
+        <x:v>45906.4313854514</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1023,7 +1014,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4313854514</x:v>
+        <x:v>45914.4049574074</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1055,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.4049574074</x:v>
+        <x:v>45906.4147882292</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4147882292</x:v>
+        <x:v>45906.665940162</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.665940162</x:v>
+        <x:v>45906.6660945602</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45928.9945879977</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.4463732292</x:v>
+        <x:v>45907.415655706</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.415655706</x:v>
+        <x:v>45906.6656297454</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6656297454</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45907.6144419329</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1366,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6144419329</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1392,38 +1383,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45907.4153402431</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS363_Tutorial-35623.xlsx
+++ b/downloaded_files/MDPS363_Tutorial-35623.xlsx
@@ -790,7 +790,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4148960995</x:v>
+        <x:v>45929.4827616088</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>

--- a/downloaded_files/MDPS363_Tutorial-35623.xlsx
+++ b/downloaded_files/MDPS363_Tutorial-35623.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">  Mohamed Nehad Sayed Ahmed El kanawaty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان أحمد حسن سعيد معوض أبو الحسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Ahmed Hassan Said Moawad Abuelhassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230305</x:t>
@@ -335,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -644,7 +635,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="37.110625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.350625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.150625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1174,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45928.9945879977</x:v>
+        <x:v>45907.415655706</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.415655706</x:v>
+        <x:v>45906.6656297454</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6656297454</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45907.6144419329</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1325,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6144419329</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1351,38 +1342,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45907.4153402431</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS363_Tutorial-35623.xlsx
+++ b/downloaded_files/MDPS363_Tutorial-35623.xlsx
@@ -111,7 +111,7 @@
     <x:t>فارس صلاح الدين احمد فؤاد حسنين حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>Faris Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
+    <x:t>Fares Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230099</x:t>
